--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3241737.788750875</v>
+        <v>3345917.423201945</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.94090105741796</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>108.2462644793345</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>99.84743072442049</v>
+        <v>149.2419515106231</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>83.54118898789417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>95.19639192392056</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>5.918693043519617</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>67.24359101112105</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.17859308440507</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.52360802547854</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.95146857460883</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>59.95396681995836</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>36.86080948088104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>27.34574348918484</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>70.58974991479215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>227.9781415148424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.95889092250177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>222.1774156618448</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>125.2700607443044</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>193.317285540949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>90.14863908058143</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>9.592641220496363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>211.8835657758637</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>5.640152769375217</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>152.3242997534466</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.1470961459105</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>134.3852063573442</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>53.11937003878008</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>37.01163236946537</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>137.5213979579541</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.05096575280812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>109.0909680372339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529922</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1675.730933054505</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1306.768416114093</v>
+        <v>1295.715926185142</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>937.4502275783914</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118627</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2062.330773118627</v>
+        <v>2051.278283189675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.8443805240842</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>460.8443805240842</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983421</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>681.6369596676143</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.8443805240842</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.539111149739</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>899.070885937115</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>513.2826333388707</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189672</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.13895121386</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415546</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.012987209659</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>775.9977502341333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1239.503030201924</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C8" t="n">
-        <v>870.5405132615124</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="D8" t="n">
-        <v>512.2748146547618</v>
+        <v>1268.033402877527</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2088.986216231253</v>
+        <v>591.781102412113</v>
       </c>
       <c r="C10" t="n">
-        <v>1920.050033303346</v>
+        <v>591.781102412113</v>
       </c>
       <c r="D10" t="n">
-        <v>1769.93339389101</v>
+        <v>441.6644629997772</v>
       </c>
       <c r="E10" t="n">
-        <v>1769.93339389101</v>
+        <v>441.6644629997772</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>294.7745155018669</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>127.0716788765858</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>127.0716788765858</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>3103.839206178697</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>2814.73633930434</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>2560.051851098453</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>2270.634681061493</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>2270.634681061493</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y10" t="n">
-        <v>2270.634681061493</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130626</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140056</v>
+        <v>1747.180129485415</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1492.495641279528</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>3050.708758511721</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>3453.149802485491</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>3453.149802485491</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>3232.357223341961</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,25 +6247,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3266.400361191265</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>3097.464178263358</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>2947.347538851023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>2799.43444526863</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2652.544497770719</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U28" t="n">
-        <v>4440.9326143059</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V28" t="n">
-        <v>4186.248126100013</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>3896.830956063052</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>3668.841405165035</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>3448.048826021505</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>559.3040775751642</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>3010.063329468223</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>229.5592957321579</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>229.5592957321579</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="38">
@@ -7151,43 +7153,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>214.9229991561138</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2939.372134388645</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C40" t="n">
-        <v>2770.435951460739</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D40" t="n">
-        <v>2620.319312048403</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E40" t="n">
-        <v>2620.319312048403</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>2473.429364550493</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218392</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>4403.547127064016</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>3825.054730371253</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.53722908186</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153953</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4623.787448650996</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4334.712221995194</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4080.027733789308</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3790.610563752347</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3562.62101285433</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912099</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>2886.739351141026</v>
       </c>
       <c r="C46" t="n">
-        <v>470.7064074803618</v>
+        <v>2717.80316821312</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803618</v>
+        <v>2567.686528800784</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979687</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>3068.387815971266</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>258.8387309000593</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>58.20633287440171</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>64.34558267474617</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>54.56191943763292</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>93.20571279564203</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>75.37549921168741</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.0314858713395</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>136.8413214260728</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>40.25407754796433</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.765297557913</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.8601746357975</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.28686650065868</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.909506488879686</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>112.4047682534888</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.3938179578229</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.5336875992867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>58.1558530613939</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695833.7131767023</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
@@ -26329,31 +26331,31 @@
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813241</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26439,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.2164692624</v>
+        <v>-787485.216469263</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583298</v>
+        <v>541259.5292583295</v>
       </c>
       <c r="D6" t="n">
         <v>541259.5292583297</v>
       </c>
       <c r="E6" t="n">
-        <v>289339.8598029619</v>
+        <v>289339.8598029618</v>
       </c>
       <c r="F6" t="n">
         <v>614752.3216103171</v>
@@ -26537,31 +26539,31 @@
         <v>614752.3216103171</v>
       </c>
       <c r="H6" t="n">
-        <v>614752.3216103172</v>
+        <v>614752.3216103171</v>
       </c>
       <c r="I6" t="n">
-        <v>614752.3216103172</v>
+        <v>614752.3216103168</v>
       </c>
       <c r="J6" t="n">
-        <v>397221.1192130395</v>
+        <v>397221.1192130391</v>
       </c>
       <c r="K6" t="n">
         <v>614752.3216103171</v>
       </c>
       <c r="L6" t="n">
-        <v>614752.3216103172</v>
+        <v>614752.3216103171</v>
       </c>
       <c r="M6" t="n">
-        <v>529697.2936748051</v>
+        <v>529697.2936748053</v>
       </c>
       <c r="N6" t="n">
-        <v>614752.3216103173</v>
+        <v>614752.321610317</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.3216103172</v>
+        <v>614752.321610317</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.3216103174</v>
+        <v>614752.3216103169</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,17 +27384,17 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262.742140563265</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>273.6841055929273</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>125.8622246646167</v>
+        <v>76.46770387841403</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>271.1418526327888</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>311.6796538177909</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.6043052930714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>151.3410623409737</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.5552485790755</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>346.4067620467832</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>84.46957944832241</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>36.39845358987973</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4622569139909</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32017,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32078,7 +32080,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>379.5002789321571</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32555,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>514.8598010172138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>211.5147800288493</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>218.6425359394819</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,16 +33505,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>510.8679233250724</v>
+        <v>451.9270028924504</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>451.9270028924504</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>552.0015769888928</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>249.1672590991333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>585.3368606136115</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,7 +34465,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.6208179396319</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36136,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>77.5403726145191</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>379.5262112417391</v>
+        <v>320.5852908091172</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>320.5852908091172</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>418.0271695745625</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>122.3296324324666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>442.7406161691671</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579322</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345917.423201945</v>
+        <v>3341904.813187951</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>108.2462644793345</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>149.2419515106231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>95.19639192392056</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>206.7719990062735</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1104,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>76.93628836873181</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.24359101112105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>35.52360802547854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>271.2903285220037</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.95396681995836</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>78.6882778203391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>190.821537608521</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>32.81060261323955</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>27.34574348918484</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>227.9781415148424</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>222.1774156618448</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.2700607443044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>65.99480013030511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>211.8835657758637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>152.3242997534466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>133.1470961459105</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>37.01163236946537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>137.5213979579541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.85912858529922</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125553</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.715926185142</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>937.4502275783914</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189675</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>899.070885937115</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>513.2826333388707</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,28 +4658,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9977502341333</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4722,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1346.298168647694</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.9977502341333</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.299101484277</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.033402877527</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548399</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>591.781102412113</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>591.781102412113</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>441.6644629997772</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>441.6644629997772</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>294.7745155018669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>127.0716788765858</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>127.0716788765858</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>591.781102412113</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,64 +5023,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>815.9830526793652</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>665.8664132670294</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>517.9533196846363</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.737459147272</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.747908249255</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057244</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1747.180129485415</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.495641279528</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3050.708758511721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3453.149802485491</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3453.149802485491</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3232.357223341961</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1026.887310050512</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,10 +6229,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,13 +6259,13 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.199616443682</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237795</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3160.179968880559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3160.179968880559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3010.063329468223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4080.027733789307</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3790.610563752346</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3562.621012854329</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3341.828433710799</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4403.547127064016</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4114.471900408214</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4114.471900408214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1005.373692624026</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>784.5811134804959</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2886.739351141026</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>2717.80316821312</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>2567.686528800784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3068.387815971266</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.76311574357379</v>
       </c>
     </row>
     <row r="14">
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>112.6104454096917</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>58.20633287440171</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>64.34558267474617</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.56191943763292</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.0314858713395</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>40.25407754796433</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.8601746357975</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.28686650065868</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>180.3938179578229</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>88.18825743108309</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.7255247667956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813241</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,10 +26441,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.216469263</v>
+        <v>-787485.2164692631</v>
       </c>
       <c r="C6" t="n">
         <v>541259.5292583295</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583297</v>
+        <v>541259.5292583292</v>
       </c>
       <c r="E6" t="n">
-        <v>289339.8598029618</v>
+        <v>288992.4805486047</v>
       </c>
       <c r="F6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559601</v>
       </c>
       <c r="G6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="H6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="I6" t="n">
-        <v>614752.3216103168</v>
+        <v>614404.94235596</v>
       </c>
       <c r="J6" t="n">
-        <v>397221.1192130391</v>
+        <v>396873.7399586827</v>
       </c>
       <c r="K6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559599</v>
       </c>
       <c r="L6" t="n">
-        <v>614752.3216103171</v>
+        <v>614404.9423559598</v>
       </c>
       <c r="M6" t="n">
-        <v>529697.2936748053</v>
+        <v>529349.9144204482</v>
       </c>
       <c r="N6" t="n">
-        <v>614752.321610317</v>
+        <v>614404.9423559601</v>
       </c>
       <c r="O6" t="n">
-        <v>614752.321610317</v>
+        <v>614404.9423559601</v>
       </c>
       <c r="P6" t="n">
-        <v>614752.3216103169</v>
+        <v>614404.9423559601</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>273.6841055929273</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>76.46770387841403</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>311.6796538177909</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>179.4659396497801</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>209.2755498368811</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.3410623409737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>346.4067620467832</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.4407721564653</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>36.39845358987973</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>388.514013929771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>309.7666854143577</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>451.9270028924504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>451.9270028924504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>585.3368606136115</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>616.375287159485</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>245.9177694853266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>171.2123056344834</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>320.5852908091172</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>320.5852908091172</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>442.7406161691671</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>473.7790427150405</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3341904.813187951</v>
+        <v>3343665.343490738</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261485</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.76195975981773</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>256.7518877339014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>206.7719990062735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>76.93628836873181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>271.2903285220037</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.794425514577</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10.39491682769552</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>94.56071137692086</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.821537608521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.81060261323955</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.44181015857173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4366,7 +4366,7 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4603,16 +4603,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2235.550262878908</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,25 +4634,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,13 +4667,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1346.298168647694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1091.613680441807</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1091.613680441807</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4846,10 +4846,10 @@
         <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5244,7 +5244,7 @@
         <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,34 +5296,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>665.8664132670294</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9533196846363</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6171,22 +6171,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
         <v>974.1018203925706</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6457,22 +6457,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>72.68610972170697</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.6104454096917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.59775584152679</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813246</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813249</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813251</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26441,10 +26441,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787485.2164692631</v>
+        <v>-787485.2164692628</v>
       </c>
       <c r="C6" t="n">
-        <v>541259.5292583295</v>
+        <v>541259.52925833</v>
       </c>
       <c r="D6" t="n">
-        <v>541259.5292583292</v>
+        <v>541259.5292583297</v>
       </c>
       <c r="E6" t="n">
-        <v>288992.4805486047</v>
+        <v>289305.1218775262</v>
       </c>
       <c r="F6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="G6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="H6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="I6" t="n">
-        <v>614404.94235596</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="J6" t="n">
-        <v>396873.7399586827</v>
+        <v>397186.3812876035</v>
       </c>
       <c r="K6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="L6" t="n">
-        <v>614404.9423559598</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="M6" t="n">
-        <v>529349.9144204482</v>
+        <v>529662.5557493696</v>
       </c>
       <c r="N6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="O6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="P6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848813</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683927</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.9210818608652</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>94.04427615813225</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.5210040371061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>179.4659396497801</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>209.2755498368811</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.4407721564653</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414766</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>155.6308914313327</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062519</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
